--- a/data/Table_results_overall_lnCVR.xlsx
+++ b/data/Table_results_overall_lnCVR.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamanw\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Dropbox\Meta Analysis Project\Extraction\Transgenerational Meta-Analysis\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49861BAA-7A7D-401C-854B-4056BBB7996B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACCA9E-B0E6-4B35-912C-BAB278B9AA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7CE0AC1-5B38-41F4-A05C-6CFBC39CF1AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B7CE0AC1-5B38-41F4-A05C-6CFBC39CF1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>ci.lb</t>
   </si>
@@ -46,21 +45,6 @@
   </si>
   <si>
     <t>OF</t>
-  </si>
-  <si>
-    <t>p-val</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>papers</t>
-  </si>
-  <si>
-    <t>cohorts</t>
-  </si>
-  <si>
-    <t>traits</t>
   </si>
   <si>
     <t>Female Grand Offspring</t>
@@ -436,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25618584-ABCA-4AD8-9FEF-A38FDD27F1E1}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E12"/>
+      <selection activeCell="C11" sqref="C11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,15 +433,15 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -465,28 +449,13 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>-5.1700000000000003E-2</v>
@@ -498,29 +467,29 @@
         <v>0.1472</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>-0.1293</v>
+        <v>-0.18110000000000001</v>
       </c>
       <c r="D3">
-        <v>-0.43020000000000003</v>
+        <v>-0.48099999999999998</v>
       </c>
       <c r="E3">
-        <v>0.17150000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>-7.2900000000000006E-2</v>
@@ -532,46 +501,46 @@
         <v>0.3332</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>7.0400000000000004E-2</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="D5">
-        <v>-0.33489999999999998</v>
+        <v>-0.15920000000000001</v>
       </c>
       <c r="E5">
-        <v>0.47560000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.15409999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2.7E-2</v>
+        <v>-4.58E-2</v>
       </c>
       <c r="D6">
-        <v>-0.36080000000000001</v>
+        <v>-0.27329999999999999</v>
       </c>
       <c r="E6">
-        <v>0.41489999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.18160000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>4.9399999999999999E-2</v>
@@ -583,46 +552,46 @@
         <v>0.32690000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-8.6300000000000002E-2</v>
+        <v>-3.6900000000000002E-2</v>
       </c>
       <c r="D8">
-        <v>-0.36630000000000001</v>
+        <v>-0.2487</v>
       </c>
       <c r="E8">
-        <v>0.19370000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>-0.23150000000000001</v>
+        <v>-0.18210000000000001</v>
       </c>
       <c r="D9">
-        <v>-0.51470000000000005</v>
+        <v>-0.38529999999999998</v>
       </c>
       <c r="E9">
-        <v>5.1799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>-0.26229999999999998</v>
@@ -634,38 +603,38 @@
         <v>0.44869999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0.24660000000000001</v>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="D11">
-        <v>-0.47439999999999999</v>
+        <v>-0.17050000000000001</v>
       </c>
       <c r="E11">
-        <v>0.96760000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.13930000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>0.26069999999999999</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="D12">
-        <v>-0.45960000000000001</v>
+        <v>-0.153</v>
       </c>
       <c r="E12">
-        <v>0.98099999999999998</v>
+        <v>0.14990000000000001</v>
       </c>
     </row>
   </sheetData>
